--- a/Insignia_Stat_Chart.xlsx
+++ b/Insignia_Stat_Chart.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="J:\ProjectDAHYUN\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Joshx\Documents\Project_DAHYUN\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{715492EC-92D9-443B-BFBF-C6F8061D4262}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1AF980F5-FC6A-473F-9857-382AA8F1F5AC}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12225" xr2:uid="{4D5CDC39-6BD5-4202-959A-E771B6642A6E}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12230" xr2:uid="{4D5CDC39-6BD5-4202-959A-E771B6642A6E}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,12 +25,27 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="2">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
   <si>
-    <t>str</t>
+    <t>Atk</t>
   </si>
   <si>
-    <t>lv 1</t>
+    <t>def</t>
+  </si>
+  <si>
+    <t>prs</t>
+  </si>
+  <si>
+    <t>spd</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Knight </t>
+  </si>
+  <si>
+    <t>stat / Lv</t>
+  </si>
+  <si>
+    <t>health</t>
   </si>
 </sst>
 </file>
@@ -382,66 +397,206 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1F1C24A2-264F-449F-90F3-E9C846032E54}">
-  <dimension ref="A1:B11"/>
+  <dimension ref="A1:F12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="H6" sqref="H6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B1" t="s">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
+      <c r="C2" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="D2" t="s">
+        <v>2</v>
+      </c>
+      <c r="E2" t="s">
+        <v>3</v>
+      </c>
+      <c r="F2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A3">
+        <v>1</v>
+      </c>
+      <c r="B3">
+        <v>5</v>
+      </c>
+      <c r="C3">
+        <v>4</v>
+      </c>
+      <c r="D3">
         <v>2</v>
       </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="E3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A4">
+        <v>2</v>
+      </c>
+      <c r="B4">
+        <v>7</v>
+      </c>
+      <c r="C4">
+        <v>6</v>
+      </c>
+      <c r="D4">
         <v>3</v>
       </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="E4">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A5">
+        <v>3</v>
+      </c>
+      <c r="B5">
+        <v>9</v>
+      </c>
+      <c r="C5">
+        <v>8</v>
+      </c>
+      <c r="D5">
         <v>4</v>
       </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="E5">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A6">
+        <v>4</v>
+      </c>
+      <c r="B6">
+        <v>11</v>
+      </c>
+      <c r="C6">
+        <v>10</v>
+      </c>
+      <c r="D6">
         <v>5</v>
       </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="E6">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A7">
+        <v>5</v>
+      </c>
+      <c r="B7">
+        <v>13</v>
+      </c>
+      <c r="C7">
+        <v>12</v>
+      </c>
+      <c r="D7">
         <v>6</v>
       </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="E7">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A8">
+        <v>6</v>
+      </c>
+      <c r="B8">
+        <v>15</v>
+      </c>
+      <c r="C8">
+        <v>14</v>
+      </c>
+      <c r="D8">
         <v>7</v>
       </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="E8">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A9">
+        <v>7</v>
+      </c>
+      <c r="B9">
+        <v>17</v>
+      </c>
+      <c r="C9">
+        <v>16</v>
+      </c>
+      <c r="D9">
         <v>8</v>
       </c>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="E9">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A10">
+        <v>8</v>
+      </c>
+      <c r="B10">
+        <v>19</v>
+      </c>
+      <c r="C10">
+        <v>18</v>
+      </c>
+      <c r="D10">
         <v>9</v>
       </c>
-    </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="E10">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A11">
+        <v>9</v>
+      </c>
+      <c r="B11">
+        <v>21</v>
+      </c>
+      <c r="C11">
+        <v>20</v>
+      </c>
+      <c r="D11">
+        <v>10</v>
+      </c>
+      <c r="E11">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A12">
+        <v>10</v>
+      </c>
+      <c r="B12">
+        <v>23</v>
+      </c>
+      <c r="C12">
+        <v>22</v>
+      </c>
+      <c r="D12">
+        <v>11</v>
+      </c>
+      <c r="E12">
         <v>10</v>
       </c>
     </row>
